--- a/src/resources/annualBill.xlsx
+++ b/src/resources/annualBill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytenoob/Documents/shnu_resident/shnu-resident/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FE572BA-EAC8-8649-9F76-751E7817952F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A600506F-FA62-9842-8ED7-306B4D6A22BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="7060" windowWidth="27640" windowHeight="16940" xr2:uid="{7F4FDF73-B027-3543-8D94-BFA69A2F7168}"/>
   </bookViews>
@@ -60,18 +60,12 @@
     <t>补贴50%</t>
   </si>
   <si>
-    <t>名义月租（一）</t>
-  </si>
-  <si>
     <t>合约租期（一）</t>
   </si>
   <si>
     <t>合约租期（二）</t>
   </si>
   <si>
-    <t>名义月租（二）</t>
-  </si>
-  <si>
     <t>实际月租金1-12</t>
   </si>
   <si>
@@ -100,13 +94,19 @@
   </si>
   <si>
     <t>&lt;%~ab.amount%&gt;</t>
+  </si>
+  <si>
+    <t>合约租金（一）</t>
+  </si>
+  <si>
+    <t>合约租金（二）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,36 +122,18 @@
     <font>
       <sz val="12"/>
       <color indexed="63"/>
-      <name val="微软雅黑"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="微软雅黑"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -199,38 +181,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE6731A-52F1-5B40-894E-05D4F8FF5DBD}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -574,95 +553,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="32">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="54">
-      <c r="A3" s="3" t="s">
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="L3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
